--- a/item_transformation/diagrams.xlsx
+++ b/item_transformation/diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DL2020\item_transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3448B51-51E0-4CF9-8AA0-4E1E89EBE66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E64924-6AF8-470E-BAAC-CDD684FD8543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF6DA02-A791-42C3-AA43-031C56B512F7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CCF6DA02-A791-42C3-AA43-031C56B512F7}"/>
   </bookViews>
   <sheets>
     <sheet name="5_epochs" sheetId="2" r:id="rId1"/>
@@ -5666,7 +5666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FA9C04-7449-4DA3-AA7B-41CC6BF6108A}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -6186,8 +6186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14AAF32-124F-4E67-BE7D-0D938C60366D}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/item_transformation/diagrams.xlsx
+++ b/item_transformation/diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DL2020\item_transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E64924-6AF8-470E-BAAC-CDD684FD8543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE5FC62-6297-4F71-A62E-F5B41F615CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CCF6DA02-A791-42C3-AA43-031C56B512F7}"/>
   </bookViews>
@@ -306,16 +306,16 @@
                   <c:v>2.7333226203918457</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>2.6259582042694092</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.6009304523468018</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4890735149383545</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.270167350769043</c:v>
+                  <c:v>2.6009316444396973</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1476457118988037</c:v>
+                  <c:v>2.7546002864837646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,7 +336,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>random large crop_5_epochs.csv</c:v>
+                  <c:v>randomized small resize crop_5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,19 +360,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7546002864837646</c:v>
+                  <c:v>2.7222895622253418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6009316444396973</c:v>
+                  <c:v>2.5210192203521729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4311802387237549</c:v>
+                  <c:v>2.4890735149383545</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.2406656742095947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1823773384094238</c:v>
+                  <c:v>2.4311802387237549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,7 +393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>randomized small resize crop_5</c:v>
+                  <c:v>resize to 128_5_epochs.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -417,19 +417,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7222895622253418</c:v>
+                  <c:v>2.7016780376434326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5210192203521729</c:v>
+                  <c:v>2.3965959548950195</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.4314975738525391</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.270167350769043</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.2746751308441162</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1264657974243164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,19 +474,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7016780376434326</c:v>
+                  <c:v>2.2403647899627686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6259582042694092</c:v>
+                  <c:v>2.1823773384094238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3965959548950195</c:v>
+                  <c:v>2.1264657974243164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2403647899627686</c:v>
+                  <c:v>2.1081149578094482</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1081149578094482</c:v>
+                  <c:v>2.1476457118988037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,16 +753,16 @@
                   <c:v>3.6388864517211914</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6.2902083396911621</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.2822904586791992</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9359712600708008</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3236773014068604</c:v>
+                  <c:v>2.5933001041412354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9927686452865601</c:v>
+                  <c:v>2.3890042304992676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,7 +783,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>random large crop_5_epochs.csv</c:v>
+                  <c:v>randomized small resize crop_5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -798,19 +798,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3890042304992676</c:v>
+                  <c:v>2.2719409465789795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5933001041412354</c:v>
+                  <c:v>2.4862906932830811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.199533224105835</c:v>
+                  <c:v>2.9359712600708008</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.2744202613830566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9940547943115234</c:v>
+                  <c:v>2.199533224105835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,7 +831,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>randomized small resize crop_5</c:v>
+                  <c:v>resize to 128_5_epochs.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -846,19 +846,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2719409465789795</c:v>
+                  <c:v>2.2114896774291992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4862906932830811</c:v>
+                  <c:v>2.1425769329071045</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.3991520404815674</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2.3236773014068604</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6.9562621116638184</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9480180740356445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,19 +894,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2114896774291992</c:v>
+                  <c:v>2.4294817447662354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2902083396911621</c:v>
+                  <c:v>1.9940547943115234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1425769329071045</c:v>
+                  <c:v>1.9480180740356445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4294817447662354</c:v>
+                  <c:v>2.0141971111297607</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0141971111297607</c:v>
+                  <c:v>1.9927686452865601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,7 +1126,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>train_loss</a:t>
+              <a:t>accurancy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1173,16 +1173,16 @@
                   <c:v>9.9770933389663696E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.11809621006250381</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.132603719830513</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16874523460865021</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22728429734706879</c:v>
+                  <c:v>0.132603719830513</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30567574501037598</c:v>
+                  <c:v>0.16009162366390228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1203,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>random large crop_5_epochs.csv</c:v>
+                  <c:v>randomized small resize crop_5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1218,19 +1218,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16009162366390228</c:v>
+                  <c:v>0.16594552993774414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.132603719830513</c:v>
+                  <c:v>0.16772715747356415</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18070755898952484</c:v>
+                  <c:v>0.16874523460865021</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.17485365271568298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27411556243896484</c:v>
+                  <c:v>0.18070755898952484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,7 +1251,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>randomized small resize crop_5</c:v>
+                  <c:v>resize to 128_5_epochs.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1266,19 +1266,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16594552993774414</c:v>
+                  <c:v>0.20539577305316925</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16772715747356415</c:v>
+                  <c:v>0.20539577305316925</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.20743191242218018</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.22728429734706879</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.23364724218845367</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.29065918922424316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,19 +1314,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.20539577305316925</c:v>
+                  <c:v>0.25884449481964111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11809621006250381</c:v>
+                  <c:v>0.27411556243896484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20539577305316925</c:v>
+                  <c:v>0.29065918922424316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25884449481964111</c:v>
+                  <c:v>0.29651311039924622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29651311039924622</c:v>
+                  <c:v>0.30567574501037598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,6 +5338,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF0D28F6-FB22-474D-9DFB-D935A98D7F81}" name="_5_epochs" displayName="_5_epochs" ref="A1:G21" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G21" xr:uid="{C68C6E50-5A27-4A4D-BF51-8F82FF1CC186}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+    <sortCondition ref="E1:E21"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0085B607-0714-4AA7-8518-E27BDFFC47DF}" uniqueName="1" name="Source.Name" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2AEF9633-79E5-46D1-B1B4-F76841C3C12C}" uniqueName="2" name="epoch" queryTableFieldId="2"/>
@@ -5667,7 +5670,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5738,25 +5741,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.6009304523468018</v>
+        <v>2.6259582042694092</v>
       </c>
       <c r="D3">
-        <v>2.2822904586791992</v>
+        <v>6.2902083396911621</v>
       </c>
       <c r="E3">
-        <v>0.132603719830513</v>
+        <v>0.11809621006250381</v>
       </c>
       <c r="F3" s="2">
-        <v>0.12152777777777778</v>
+        <v>0.05</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5764,19 +5767,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.4890735149383545</v>
+        <v>2.6009304523468018</v>
       </c>
       <c r="D4">
-        <v>2.9359712600708008</v>
+        <v>2.2822904586791992</v>
       </c>
       <c r="E4">
-        <v>0.16874523460865021</v>
+        <v>0.132603719830513</v>
       </c>
       <c r="F4" s="2">
-        <v>0.12222222222222222</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -5784,117 +5787,117 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2.270167350769043</v>
+        <v>2.6009316444396973</v>
       </c>
       <c r="D5">
-        <v>2.3236773014068604</v>
+        <v>2.5933001041412354</v>
       </c>
       <c r="E5">
-        <v>0.22728429734706879</v>
+        <v>0.132603719830513</v>
       </c>
       <c r="F5" s="2">
-        <v>0.12152777777777778</v>
+        <v>0.12638888888888888</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.1476457118988037</v>
+        <v>2.7546002864837646</v>
       </c>
       <c r="D6">
-        <v>1.9927686452865601</v>
+        <v>2.3890042304992676</v>
       </c>
       <c r="E6">
-        <v>0.30567574501037598</v>
+        <v>0.16009162366390228</v>
       </c>
       <c r="F6" s="2">
-        <v>0.12222222222222222</v>
+        <v>0.12777777777777777</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.7546002864837646</v>
+        <v>2.7222895622253418</v>
       </c>
       <c r="D7">
-        <v>2.3890042304992676</v>
+        <v>2.2719409465789795</v>
       </c>
       <c r="E7">
-        <v>0.16009162366390228</v>
+        <v>0.16594552993774414</v>
       </c>
       <c r="F7" s="2">
-        <v>0.12777777777777777</v>
+        <v>0.05</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2.6009316444396973</v>
+        <v>2.5210192203521729</v>
       </c>
       <c r="D8">
-        <v>2.5933001041412354</v>
+        <v>2.4862906932830811</v>
       </c>
       <c r="E8">
-        <v>0.132603719830513</v>
+        <v>0.16772715747356415</v>
       </c>
       <c r="F8" s="2">
-        <v>0.12638888888888888</v>
+        <v>0.05</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2.4311802387237549</v>
+        <v>2.4890735149383545</v>
       </c>
       <c r="D9">
-        <v>2.199533224105835</v>
+        <v>2.9359712600708008</v>
       </c>
       <c r="E9">
-        <v>0.18070755898952484</v>
+        <v>0.16874523460865021</v>
       </c>
       <c r="F9" s="2">
-        <v>0.12638888888888888</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5925,16 +5928,16 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2.1823773384094238</v>
+        <v>2.4311802387237549</v>
       </c>
       <c r="D11">
-        <v>1.9940547943115234</v>
+        <v>2.199533224105835</v>
       </c>
       <c r="E11">
-        <v>0.27411556243896484</v>
+        <v>0.18070755898952484</v>
       </c>
       <c r="F11" s="2">
         <v>0.12638888888888888</v>
@@ -5945,48 +5948,48 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.7222895622253418</v>
+        <v>2.7016780376434326</v>
       </c>
       <c r="D12">
-        <v>2.2719409465789795</v>
+        <v>2.2114896774291992</v>
       </c>
       <c r="E12">
-        <v>0.16594552993774414</v>
+        <v>0.20539577305316925</v>
       </c>
       <c r="F12" s="2">
         <v>0.05</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>2.5210192203521729</v>
+        <v>2.3965959548950195</v>
       </c>
       <c r="D13">
-        <v>2.4862906932830811</v>
+        <v>2.1425769329071045</v>
       </c>
       <c r="E13">
-        <v>0.16772715747356415</v>
+        <v>0.20539577305316925</v>
       </c>
       <c r="F13" s="2">
         <v>0.05</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6014,25 +6017,25 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2.2746751308441162</v>
+        <v>2.270167350769043</v>
       </c>
       <c r="D15">
-        <v>6.9562621116638184</v>
+        <v>2.3236773014068604</v>
       </c>
       <c r="E15">
-        <v>0.23364724218845367</v>
+        <v>0.22728429734706879</v>
       </c>
       <c r="F15" s="2">
-        <v>0.05</v>
+        <v>0.12152777777777778</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6040,16 +6043,16 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2.1264657974243164</v>
+        <v>2.2746751308441162</v>
       </c>
       <c r="D16">
-        <v>1.9480180740356445</v>
+        <v>6.9562621116638184</v>
       </c>
       <c r="E16">
-        <v>0.29065918922424316</v>
+        <v>0.23364724218845367</v>
       </c>
       <c r="F16" s="2">
         <v>0.05</v>
@@ -6063,16 +6066,16 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>2.7016780376434326</v>
+        <v>2.2403647899627686</v>
       </c>
       <c r="D17">
-        <v>2.2114896774291992</v>
+        <v>2.4294817447662354</v>
       </c>
       <c r="E17">
-        <v>0.20539577305316925</v>
+        <v>0.25884449481964111</v>
       </c>
       <c r="F17" s="2">
         <v>0.05</v>
@@ -6083,48 +6086,48 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2.6259582042694092</v>
+        <v>2.1823773384094238</v>
       </c>
       <c r="D18">
-        <v>6.2902083396911621</v>
+        <v>1.9940547943115234</v>
       </c>
       <c r="E18">
-        <v>0.11809621006250381</v>
+        <v>0.27411556243896484</v>
       </c>
       <c r="F18" s="2">
-        <v>0.05</v>
+        <v>0.12638888888888888</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>2.3965959548950195</v>
+        <v>2.1264657974243164</v>
       </c>
       <c r="D19">
-        <v>2.1425769329071045</v>
+        <v>1.9480180740356445</v>
       </c>
       <c r="E19">
-        <v>0.20539577305316925</v>
+        <v>0.29065918922424316</v>
       </c>
       <c r="F19" s="2">
         <v>0.05</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6132,16 +6135,16 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>2.2403647899627686</v>
+        <v>2.1081149578094482</v>
       </c>
       <c r="D20">
-        <v>2.4294817447662354</v>
+        <v>2.0141971111297607</v>
       </c>
       <c r="E20">
-        <v>0.25884449481964111</v>
+        <v>0.29651311039924622</v>
       </c>
       <c r="F20" s="2">
         <v>0.05</v>
@@ -6152,25 +6155,25 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>2.1081149578094482</v>
+        <v>2.1476457118988037</v>
       </c>
       <c r="D21">
-        <v>2.0141971111297607</v>
+        <v>1.9927686452865601</v>
       </c>
       <c r="E21">
-        <v>0.29651311039924622</v>
+        <v>0.30567574501037598</v>
       </c>
       <c r="F21" s="2">
-        <v>0.05</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
